--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dkk2-Kremen1.xlsx
@@ -528,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.77970022852943</v>
+        <v>8.398553333333334</v>
       </c>
       <c r="H2">
-        <v>7.77970022852943</v>
+        <v>25.19566</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20861863951934</v>
+        <v>3.238669333333334</v>
       </c>
       <c r="N2">
-        <v>3.20861863951934</v>
+        <v>9.716008</v>
       </c>
       <c r="O2">
-        <v>0.1125985290869081</v>
+        <v>0.1133140796744973</v>
       </c>
       <c r="P2">
-        <v>0.1125985290869081</v>
+        <v>0.1133140796744973</v>
       </c>
       <c r="Q2">
-        <v>24.9620911631324</v>
+        <v>27.20013712503112</v>
       </c>
       <c r="R2">
-        <v>24.9620911631324</v>
+        <v>244.80123412528</v>
       </c>
       <c r="S2">
-        <v>0.1125985290869081</v>
+        <v>0.1133140796744973</v>
       </c>
       <c r="T2">
-        <v>0.1125985290869081</v>
+        <v>0.1133140796744973</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.77970022852943</v>
+        <v>8.398553333333334</v>
       </c>
       <c r="H3">
-        <v>7.77970022852943</v>
+        <v>25.19566</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.9344019609775</v>
+        <v>17.985402</v>
       </c>
       <c r="N3">
-        <v>17.9344019609775</v>
+        <v>53.956206</v>
       </c>
       <c r="O3">
-        <v>0.6293634450624324</v>
+        <v>0.6292705631384401</v>
       </c>
       <c r="P3">
-        <v>0.6293634450624324</v>
+        <v>0.6292705631384401</v>
       </c>
       <c r="Q3">
-        <v>139.5242710343553</v>
+        <v>151.05135791844</v>
       </c>
       <c r="R3">
-        <v>139.5242710343553</v>
+        <v>1359.46222126596</v>
       </c>
       <c r="S3">
-        <v>0.6293634450624324</v>
+        <v>0.6292705631384401</v>
       </c>
       <c r="T3">
-        <v>0.6293634450624324</v>
+        <v>0.6292705631384401</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.77970022852943</v>
+        <v>8.398553333333334</v>
       </c>
       <c r="H4">
-        <v>7.77970022852943</v>
+        <v>25.19566</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.35307668904056</v>
+        <v>7.357278333333333</v>
       </c>
       <c r="N4">
-        <v>7.35307668904056</v>
+        <v>22.071835</v>
       </c>
       <c r="O4">
-        <v>0.2580380258506595</v>
+        <v>0.2574153571870626</v>
       </c>
       <c r="P4">
-        <v>0.2580380258506595</v>
+        <v>0.2574153571870626</v>
       </c>
       <c r="Q4">
-        <v>57.20473239812327</v>
+        <v>61.79049447067779</v>
       </c>
       <c r="R4">
-        <v>57.20473239812327</v>
+        <v>556.1144502361</v>
       </c>
       <c r="S4">
-        <v>0.2580380258506595</v>
+        <v>0.2574153571870626</v>
       </c>
       <c r="T4">
-        <v>0.2580380258506595</v>
+        <v>0.2574153571870626</v>
       </c>
     </row>
   </sheetData>
